--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="991" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0537213-1CAD-4D09-93CF-B66418BA70BC}"/>
+  <xr:revisionPtr revIDLastSave="1047" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83F0320-BB86-41E2-A75F-B83EEFD1A0EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="892">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -3002,9 +3002,6 @@
 print(text.padLeft(2, '0'));</t>
   </si>
   <si>
-    <t>لاضافة اصفار قبل التكست</t>
-  </si>
-  <si>
     <t>contains()</t>
   </si>
   <si>
@@ -3527,9 +3524,6 @@
   </si>
   <si>
     <t>import "dart:async";</t>
-  </si>
-  <si>
-    <t>مكتبة</t>
   </si>
   <si>
     <t>Timer(Duration(seconds: 3), () {
@@ -3709,22 +3703,7 @@
     <t>مشروع الوقت والساعه</t>
   </si>
   <si>
-    <t xml:space="preserve"> String year="";</t>
-  </si>
-  <si>
-    <t>Text(" اليوم/$year"</t>
-  </si>
-  <si>
     <t>وهذ علشان يتكرر الفونكشن كل 5 ثواني</t>
-  </si>
-  <si>
-    <t>fahad(){
-    Timer.periodic(Duration(seconds: 1), (timer) {
-    setState(() {
-      year=DateTime.now().year.toString();
-    });
-    });
-  }</t>
   </si>
   <si>
     <t xml:space="preserve">  void initState() {
@@ -3740,31 +3719,239 @@
   }</t>
   </si>
   <si>
-    <t>الدقيقة 16:6</t>
-  </si>
-  <si>
-    <t>الدرس 18</t>
-  </si>
-  <si>
-    <t>تسوي فاريبول تخليه فاضي</t>
-  </si>
-  <si>
-    <t>تأخذ اسم الفاريبول وتحط في التكست</t>
-  </si>
-  <si>
     <t>تستدعي مكتبة الوقت</t>
-  </si>
-  <si>
-    <t>تسوي فونكشن عادي مع التحديث فونكشن 
-قيمة الفاريبول هو فونكشن تكرار الوقت</t>
-  </si>
-  <si>
-    <t>تحط فونكشن اثناء تشغيل البرنامج تتنفذ
-inits</t>
   </si>
   <si>
     <t>وفي داخل فونكشن التشغيل تحط استدعاء 
 الفونكشن العادية</t>
+  </si>
+  <si>
+    <t>تحط فونكشن اثناء تشغيل البرنامج تتنفذ
+inits
+هذ الكود يشتغل اذا اشتغل البرنامج</t>
+  </si>
+  <si>
+    <t>مكتبة الوقت</t>
+  </si>
+  <si>
+    <t>يتم استدعائه كلما اشتغل كود 
+setState()</t>
+  </si>
+  <si>
+    <t>وهنا موقعها في البرنامج
+ Widget build(BuildContext context) {
+    return Scaffold(</t>
+  </si>
+  <si>
+    <t>build(){}</t>
+  </si>
+  <si>
+    <t>يوجد نوعين من الفاريبول على حسب الموقعه
+الأول عام ويكون موقعه برا الفونكشن
+ام الثاني يكون داخل الفونكشن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+class _MyWidgetState extends State&lt;MyWidget&gt; {
+  String year = "";
+  String day = "";
+  String month = "";
+  String a = "";
+  String b = "";
+  String c = "";
+  String g = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسوي مجموة من فاريبول تخليه فاضي 
+بعد الكلاس </t>
+  </si>
+  <si>
+    <t>Text(
+              " اليوم/$g",
+  Text(
+              " $day / $month/ $year",
+ Text(
+              "$c : $b : ${a.padLeft(2,"0")}",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تأخذ اسم الفاريبول وتحط في التكست
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(والتكست الأخير فيه كود)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))))))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a.padLeft(2,"0")}
+تخصصه يضيف خانه إضافية في التكست نفسه 
+فعدد الخانات 2 وحده فيها الفاريبول حق الثواني
+والثاني تحط فيه أي شي
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>تنبية</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+انت داخل التكت يعني داخل الدبل كوتيشن</t>
+    </r>
+  </si>
+  <si>
+    <t>لاضافة خانات في التكست</t>
+  </si>
+  <si>
+    <t>الدرس 18.1</t>
+  </si>
+  <si>
+    <t>معلومة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسوي فونكشن عادي مع التحديث الفونكشن 
+وقيمة الفاريبول هو فونكشن تكرار الوقت
+</t>
+  </si>
+  <si>
+    <t>fahad(){
+    Timer.periodic(Duration(seconds: 1), (timer) {
+    setState(() {
+     year = DateTime.now().year.toString();
+        day = DateTime.now().day.toString();
+        month = DateTime.now().month.toString();
+        a = DateTime.now().second.toString();
+        b = DateTime.now().minute.toString();
+       hour = DateTime.now().hour;
+   });
+    });
+  }</t>
+  </si>
+  <si>
+    <t>hour = DateTime.now().hour;
+         if (hour &gt; 12) {
+          am = "pm";
+          hour=hour-12;
+        }</t>
+  </si>
+  <si>
+    <t>وتحط الايف الشرطية على فاريبول الساعه 
+بحث اذا الساعة وحده الظهر يطلع لك 1 الظهر مو الساعه 
+13
+وكمان pm و am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g = DateTime.now().weekday.toString();
+        switch (g) {
+          case "1":
+            g = "الاثنين";
+            break;
+          case "2":
+            g = "الثلاثاء";
+            break;
+          case "3":
+            g = "الاربعاء";
+            break;
+          case "4":
+            g = "الخميس";
+            break;
+          case "5":
+            g = "الجمعه";
+            break;
+          case "6":
+            g = "السبت";
+            break;
+          default:
+        }</t>
+  </si>
+  <si>
+    <t>تحط  دالة switch علشان بدل مايطلع لك رقم الأسبوع 
+يصر اسم الأسبوع</t>
+  </si>
+  <si>
+    <t>طريقة أخرى لعمل المشروع</t>
+  </si>
+  <si>
+    <t>https://pub.dev/packages/intl/install</t>
+  </si>
+  <si>
+    <t>تروح للموقع ذا 
+وتختار 
+Installing</t>
+  </si>
+  <si>
+    <t>import 'package:intl/intl.dart';</t>
+  </si>
+  <si>
+    <t>ثما تأخذ رابط استدعاء الكتبة وتحط في اول 
+الصفحة</t>
+  </si>
+  <si>
+    <t>pubspec.yaml</t>
+  </si>
+  <si>
+    <t>تروح لهذا الملف 
+وتبحث عن كلمة 
+dependencies:
+  flutter:
+    sdk: flutter
+  # The following adds the Cupertino Icons font to your application.
+  # Use with the CupertinoIcons class for iOS style icons.
+  cupertino_icons: ^1.0.2
+وهنا تحط البكج 
+intl: ^0.18.0</t>
+  </si>
+  <si>
+    <t>الدقيقة  13:12</t>
   </si>
 </sst>
 </file>
@@ -4039,7 +4226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4116,9 +4303,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4161,38 +4345,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4230,8 +4411,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4554,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4566,10 +4750,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4633,7 +4817,7 @@
     </row>
     <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -4665,11 +4849,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -4702,11 +4886,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -4733,10 +4917,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -4795,10 +4979,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="42"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -4833,10 +5017,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="43"/>
+      <c r="B49" s="42"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -4855,10 +5039,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="43"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -4908,10 +5092,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="42"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -4988,11 +5172,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -5050,11 +5234,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -5100,11 +5284,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -5131,11 +5315,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -5202,10 +5386,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="42"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -5247,11 +5431,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -5294,11 +5478,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -5341,11 +5525,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -5372,11 +5556,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="42" t="s">
+      <c r="A134" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="42"/>
-      <c r="C134" s="42"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -5419,11 +5603,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="42" t="s">
+      <c r="A141" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="42"/>
-      <c r="C141" s="42"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -5442,11 +5626,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="42"/>
-      <c r="C146" s="42"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -5482,11 +5666,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="49"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -5529,11 +5713,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -5568,11 +5752,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="43" t="s">
+      <c r="A166" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="43"/>
-      <c r="C166" s="43"/>
+      <c r="B166" s="42"/>
+      <c r="C166" s="42"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -5607,11 +5791,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="43"/>
-      <c r="C172" s="43"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -5654,11 +5838,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="42" t="s">
+      <c r="A179" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="42"/>
-      <c r="C179" s="42"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="40"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -5682,11 +5866,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="42" t="s">
+      <c r="A186" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="42"/>
-      <c r="C186" s="42"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -5740,11 +5924,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="49" t="s">
+      <c r="A194" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="49"/>
-      <c r="C194" s="49"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -5771,11 +5955,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="42" t="s">
+      <c r="A200" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="42"/>
-      <c r="C200" s="42"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="40"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -5810,11 +5994,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="42" t="s">
+      <c r="A206" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="42"/>
-      <c r="C206" s="42"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="40"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -5833,11 +6017,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="42" t="s">
+      <c r="A211" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="42"/>
-      <c r="C211" s="42"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="40"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -5883,7 +6067,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="41" t="s">
+      <c r="B217" s="46" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5891,7 +6075,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="41"/>
+      <c r="B218" s="46"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -5931,11 +6115,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="42" t="s">
+      <c r="A225" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="42"/>
-      <c r="C225" s="42"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="40"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -6010,11 +6194,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="43" t="s">
+      <c r="A237" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="43"/>
-      <c r="C237" s="43"/>
+      <c r="B237" s="42"/>
+      <c r="C237" s="42"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -6089,11 +6273,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="42" t="s">
+      <c r="A248" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="42"/>
-      <c r="C248" s="42"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="40"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -6112,11 +6296,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="42" t="s">
+      <c r="A253" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="42"/>
-      <c r="C253" s="42"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="40"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -6143,11 +6327,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="42" t="s">
+      <c r="A258" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="B258" s="42"/>
-      <c r="C258" s="42"/>
+      <c r="B258" s="40"/>
+      <c r="C258" s="40"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -6174,16 +6358,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="42" t="s">
+      <c r="A263" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="42"/>
+      <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="43" t="s">
+      <c r="A264" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="B264" s="43"/>
+      <c r="B264" s="42"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -6192,7 +6376,7 @@
       <c r="B265" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C265" s="41" t="s">
+      <c r="C265" s="46" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6203,7 +6387,7 @@
       <c r="B266" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C266" s="44"/>
+      <c r="C266" s="47"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -6212,7 +6396,7 @@
       <c r="B267" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C267" s="44"/>
+      <c r="C267" s="47"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -6223,11 +6407,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="45" t="s">
+      <c r="A270" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="46"/>
-      <c r="C270" s="47"/>
+      <c r="B270" s="48"/>
+      <c r="C270" s="45"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -6277,11 +6461,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="42" t="s">
+      <c r="A279" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="B279" s="42"/>
-      <c r="C279" s="42"/>
+      <c r="B279" s="40"/>
+      <c r="C279" s="40"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -6319,11 +6503,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="42" t="s">
+      <c r="A285" s="40" t="s">
         <v>584</v>
       </c>
-      <c r="B285" s="42"/>
-      <c r="C285" s="42"/>
+      <c r="B285" s="40"/>
+      <c r="C285" s="40"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -6350,11 +6534,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="42" t="s">
+      <c r="A290" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="B290" s="42"/>
-      <c r="C290" s="42"/>
+      <c r="B290" s="40"/>
+      <c r="C290" s="40"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -6381,11 +6565,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="42" t="s">
+      <c r="A295" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="42"/>
-      <c r="C295" s="42"/>
+      <c r="B295" s="40"/>
+      <c r="C295" s="40"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -6412,11 +6596,11 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="42" t="s">
+      <c r="A301" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="B301" s="42"/>
-      <c r="C301" s="42"/>
+      <c r="B301" s="40"/>
+      <c r="C301" s="40"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -6460,34 +6644,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
     <mergeCell ref="B217:B218"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A295:C295"/>
@@ -6504,6 +6660,34 @@
     <mergeCell ref="C265:C267"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -6518,10 +6702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6541,11 +6725,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -6620,18 +6804,18 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -6678,18 +6862,18 @@
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>730</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="51" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -6769,254 +6953,254 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>722</v>
+        <v>875</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="52" t="s">
         <v>733</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-    </row>
-    <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="B39" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C40" s="56"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="C41" s="56"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>739</v>
-      </c>
-      <c r="C40" s="58"/>
-    </row>
-    <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>740</v>
-      </c>
-      <c r="C41" s="58"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="B43" s="30" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
         <v>742</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="B44" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>745</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B45" s="30" t="s">
+    <row r="46" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
         <v>746</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="B46" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="B46" s="30" t="s">
+    <row r="47" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
         <v>748</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="B47" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>749</v>
-      </c>
-      <c r="B47" s="30" t="s">
+    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A48" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="B48" s="57" t="s">
+        <v>760</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A48" s="55" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A50" s="53" t="s">
+        <v>752</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="54"/>
+      <c r="B51" s="31" t="s">
         <v>751</v>
       </c>
-      <c r="B48" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
-        <v>753</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="C50" s="31" t="s">
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
-      <c r="B51" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="C51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="C52" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="C52" s="34" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>766</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="C53" s="34" t="s">
         <v>767</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="59" t="s">
         <v>768</v>
       </c>
-      <c r="D53" s="36"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="B55" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="36" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="37" t="s">
+      <c r="D56" s="22" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D57" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
-        <v>773</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
-        <v>776</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="D57" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
+      <c r="B58" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -7141,19 +7325,19 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>788</v>
-      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -7196,11 +7380,11 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
     </row>
     <row r="84" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
@@ -7275,11 +7459,11 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
     </row>
     <row r="95" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
@@ -7287,11 +7471,11 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
     </row>
     <row r="98" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -7374,10 +7558,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="63" t="s">
         <v>643</v>
       </c>
-      <c r="B108" s="51"/>
+      <c r="B108" s="63"/>
     </row>
     <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -7396,18 +7580,18 @@
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
     </row>
     <row r="114" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -7422,11 +7606,11 @@
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="62" t="s">
         <v>648</v>
       </c>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
@@ -7449,11 +7633,11 @@
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="50" t="s">
+      <c r="A122" s="62" t="s">
         <v>650</v>
       </c>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
     </row>
     <row r="123" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
@@ -7466,11 +7650,11 @@
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="50" t="s">
+      <c r="A125" s="62" t="s">
         <v>651</v>
       </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="50"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
     </row>
     <row r="126" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -7534,11 +7718,11 @@
       <c r="B139" s="3"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="42"/>
-      <c r="C143" s="42"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
     </row>
     <row r="144" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -7549,24 +7733,24 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="B147" s="42"/>
-      <c r="C147" s="42"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
     </row>
     <row r="148" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="41" t="s">
+      <c r="A148" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="B148" s="41"/>
+      <c r="B148" s="46"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="42" t="s">
+      <c r="A150" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="B150" s="42"/>
-      <c r="C150" s="42"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
     </row>
     <row r="151" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
@@ -7593,11 +7777,11 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
+      <c r="B155" s="42"/>
+      <c r="C155" s="42"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -7616,11 +7800,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
     </row>
     <row r="161" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
@@ -7639,11 +7823,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="43" t="s">
+      <c r="A164" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="B164" s="43"/>
-      <c r="C164" s="43"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
     </row>
     <row r="165" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
@@ -7662,11 +7846,11 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="43" t="s">
+      <c r="A169" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
+      <c r="B169" s="42"/>
+      <c r="C169" s="42"/>
     </row>
     <row r="170" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
@@ -7709,11 +7893,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="B177" s="42"/>
-      <c r="C177" s="42"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="40"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
@@ -7748,11 +7932,11 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="43" t="s">
+      <c r="A184" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="B184" s="43"/>
-      <c r="C184" s="43"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
     </row>
     <row r="185" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
@@ -7771,11 +7955,11 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="42" t="s">
+      <c r="A188" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="B188" s="42"/>
-      <c r="C188" s="42"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
     </row>
     <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
@@ -7791,11 +7975,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="42" t="s">
+      <c r="A192" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="B192" s="42"/>
-      <c r="C192" s="42"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
     </row>
     <row r="193" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -7836,11 +8020,11 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="43" t="s">
+      <c r="A198" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="B198" s="43"/>
-      <c r="C198" s="43"/>
+      <c r="B198" s="42"/>
+      <c r="C198" s="42"/>
     </row>
     <row r="199" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
@@ -7886,11 +8070,11 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="43" t="s">
+      <c r="A205" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="B205" s="43"/>
-      <c r="C205" s="43"/>
+      <c r="B205" s="42"/>
+      <c r="C205" s="42"/>
     </row>
     <row r="206" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
@@ -7925,11 +8109,11 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="42" t="s">
+      <c r="A212" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="B212" s="42"/>
-      <c r="C212" s="42"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -7975,11 +8159,11 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="43" t="s">
+      <c r="A219" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="B219" s="43"/>
-      <c r="C219" s="43"/>
+      <c r="B219" s="42"/>
+      <c r="C219" s="42"/>
     </row>
     <row r="220" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A220" s="24" t="s">
@@ -8024,11 +8208,11 @@
       <c r="C225" s="19"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="42" t="s">
+      <c r="A228" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="B228" s="42"/>
-      <c r="C228" s="42"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="40"/>
     </row>
     <row r="229" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -8055,11 +8239,11 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="42" t="s">
+      <c r="A233" s="40" t="s">
         <v>560</v>
       </c>
-      <c r="B233" s="42"/>
-      <c r="C233" s="42"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="40"/>
     </row>
     <row r="234" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -8102,11 +8286,11 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="42" t="s">
+      <c r="A240" s="40" t="s">
         <v>561</v>
       </c>
-      <c r="B240" s="42"/>
-      <c r="C240" s="42"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="40"/>
     </row>
     <row r="241" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
@@ -8189,11 +8373,11 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="43" t="s">
+      <c r="A251" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B251" s="43"/>
-      <c r="C251" s="43"/>
+      <c r="B251" s="42"/>
+      <c r="C251" s="42"/>
     </row>
     <row r="252" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -8201,11 +8385,11 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="42" t="s">
+      <c r="A255" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="B255" s="42"/>
-      <c r="C255" s="42"/>
+      <c r="B255" s="40"/>
+      <c r="C255" s="40"/>
     </row>
     <row r="256" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
@@ -8261,11 +8445,11 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="42" t="s">
+      <c r="A265" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="B265" s="42"/>
-      <c r="C265" s="42"/>
+      <c r="B265" s="40"/>
+      <c r="C265" s="40"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
@@ -8292,11 +8476,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="42" t="s">
+      <c r="A270" s="40" t="s">
         <v>617</v>
       </c>
-      <c r="B270" s="42"/>
-      <c r="C270" s="42"/>
+      <c r="B270" s="40"/>
+      <c r="C270" s="40"/>
     </row>
     <row r="271" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
@@ -8347,11 +8531,11 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="42" t="s">
+      <c r="A278" s="40" t="s">
         <v>631</v>
       </c>
-      <c r="B278" s="42"/>
-      <c r="C278" s="42"/>
+      <c r="B278" s="40"/>
+      <c r="C278" s="40"/>
     </row>
     <row r="279" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -8400,11 +8584,11 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="42" t="s">
+      <c r="A287" s="40" t="s">
         <v>668</v>
       </c>
-      <c r="B287" s="42"/>
-      <c r="C287" s="42"/>
+      <c r="B287" s="40"/>
+      <c r="C287" s="40"/>
     </row>
     <row r="288" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
@@ -8456,411 +8640,485 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="41" t="s">
+      <c r="A293" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="B293" s="44"/>
+      <c r="B293" s="47"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="42" t="s">
+      <c r="A295" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="B295" s="40"/>
+      <c r="C295" s="40"/>
+    </row>
+    <row r="296" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A296" s="37" t="s">
         <v>784</v>
       </c>
-      <c r="B295" s="42"/>
-      <c r="C295" s="42"/>
-    </row>
-    <row r="296" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A296" s="38" t="s">
+      <c r="B296" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="C296" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A297" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A297" s="39" t="s">
+      <c r="C297" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>797</v>
-      </c>
       <c r="C299" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>799</v>
-      </c>
       <c r="C300" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="C301" s="3" t="s">
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="42" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="43" t="s">
-        <v>805</v>
-      </c>
-      <c r="B303" s="43"/>
-      <c r="C303" s="43"/>
+      <c r="B303" s="42"/>
+      <c r="C303" s="42"/>
     </row>
     <row r="304" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="C305" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="B306" s="1" t="s">
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="C306" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="43" t="s">
-        <v>815</v>
-      </c>
-      <c r="B308" s="43"/>
-      <c r="C308" s="43"/>
+      <c r="B308" s="42"/>
+      <c r="C308" s="42"/>
     </row>
     <row r="309" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="42" t="s">
-        <v>822</v>
-      </c>
-      <c r="B313" s="42"/>
-      <c r="C313" s="42"/>
+      <c r="B313" s="40"/>
+      <c r="C313" s="40"/>
     </row>
     <row r="314" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B315" s="1" t="s">
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="42" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="43" t="s">
+      <c r="B317" s="42"/>
+      <c r="C317" s="42"/>
+    </row>
+    <row r="318" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A318" s="39" t="s">
         <v>826</v>
       </c>
-      <c r="B317" s="43"/>
-      <c r="C317" s="43"/>
-    </row>
-    <row r="318" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A318" s="40" t="s">
+      <c r="B318" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="C325" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>846</v>
-      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="42" t="s">
-        <v>852</v>
-      </c>
-      <c r="B328" s="42"/>
-      <c r="C328" s="42"/>
+      <c r="A328" s="40" t="s">
+        <v>850</v>
+      </c>
+      <c r="B328" s="40"/>
+      <c r="C328" s="40"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B333" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="C333" s="21" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="B336" s="49"/>
+      <c r="C336" s="49"/>
+    </row>
+    <row r="337" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B337" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="B333" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="C333" s="21" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="64" t="s">
-        <v>853</v>
-      </c>
-      <c r="B336" s="64"/>
-      <c r="C336" s="64"/>
-    </row>
-    <row r="337" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="C337" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="B337" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="C337" s="3" t="s">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="40" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="42" t="s">
+      <c r="B340" s="40"/>
+      <c r="C340" s="40"/>
+    </row>
+    <row r="341" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="196" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="308" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="B340" s="42"/>
-      <c r="C340" s="42"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="B347" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B348" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D349" s="36" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="B350" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A344" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A345" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A346" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>869</v>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="42" t="s">
+        <v>884</v>
+      </c>
+      <c r="B352" s="42"/>
+      <c r="C352" s="42"/>
+    </row>
+    <row r="353" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A353" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="196" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A240:C240"/>
+  <mergeCells count="55">
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A160:C160"/>
     <mergeCell ref="A251:C251"/>
     <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A212:C212"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A75:C75"/>
@@ -8874,32 +9132,28 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A328:C328"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A240:C240"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A353" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1047" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83F0320-BB86-41E2-A75F-B83EEFD1A0EB}"/>
+  <xr:revisionPtr revIDLastSave="1061" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F637568E-8776-4502-876B-B8B99A809630}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="897">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -3852,9 +3852,6 @@
     <t>لاضافة خانات في التكست</t>
   </si>
   <si>
-    <t>الدرس 18.1</t>
-  </si>
-  <si>
     <t>معلومة</t>
   </si>
   <si>
@@ -3951,7 +3948,65 @@
 intl: ^0.18.0</t>
   </si>
   <si>
-    <t>الدقيقة  13:12</t>
+    <t>https://api.flutter.dev/flutter/intl/DateFormat-class.html</t>
+  </si>
+  <si>
+    <t>هذا الموقع الرسمي الي تتعلم طريق الاستخدام
+حق مكتبة الوقت</t>
+  </si>
+  <si>
+    <t>fahad() {
+    Timer.periodic(Duration(seconds: 1), (timer) {
+      setState(() {
+        weekday = "";
+        date = DateFormat.yMMMd().format(DateTime.now());
+        timenow = "";</t>
+  </si>
+  <si>
+    <t>وتحطة داخل القيمة حقت الفاريبول 
+الي داخل الفونكشن</t>
+  </si>
+  <si>
+    <t>هذا الكود من المكتبة حق الوقت متخصص في احضار 
+الشهر والسنه واليوم
+طيب اذا انت تبي تغير شي في الكود لازم تروح
+للموقع الرسمي حق طريقت الاستخدام 
+وتروح للمربع الي على شكل الترمند وتاخذ الكود 
+الي على اليمين ام الي على اليسار فهو تعريف 
+للكود
+ومكان تحط التغيير في الكود هو بلون الاحمر</t>
+  </si>
+  <si>
+    <t>ابحث في الموقع عن كلمة ( Pattern  )
+علشان تشوف الأمثلة</t>
+  </si>
+  <si>
+    <r>
+      <t>DateFormat.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yMMMd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().format(DateTime.now())
+الطريقة الثانية
+DateFormat("EEEE").format(DateTime.now()</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4345,35 +4400,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4411,11 +4469,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4750,10 +4805,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4849,11 +4904,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -4886,11 +4941,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -4920,7 +4975,7 @@
       <c r="A28" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -5092,10 +5147,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -5234,11 +5289,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -5284,11 +5339,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -5315,11 +5370,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -5386,10 +5441,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="40"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -5431,11 +5486,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -5478,11 +5533,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="40" t="s">
+      <c r="A122" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -5525,11 +5580,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -5556,11 +5611,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="40" t="s">
+      <c r="A134" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="40"/>
-      <c r="C134" s="40"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -5603,11 +5658,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="40" t="s">
+      <c r="A141" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="40"/>
-      <c r="C141" s="40"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -5626,11 +5681,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="40" t="s">
+      <c r="A146" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -5666,11 +5721,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="41" t="s">
+      <c r="A153" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
+      <c r="B153" s="48"/>
+      <c r="C153" s="48"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -5838,11 +5893,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="40" t="s">
+      <c r="A179" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="40"/>
-      <c r="C179" s="40"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -5866,11 +5921,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="40" t="s">
+      <c r="A186" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="40"/>
-      <c r="C186" s="40"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -5924,11 +5979,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="41" t="s">
+      <c r="A194" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="41"/>
-      <c r="C194" s="41"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -5955,11 +6010,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="40" t="s">
+      <c r="A200" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="40"/>
-      <c r="C200" s="40"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -5994,11 +6049,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="40" t="s">
+      <c r="A206" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="41"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -6017,11 +6072,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="40" t="s">
+      <c r="A211" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="40"/>
-      <c r="C211" s="40"/>
+      <c r="B211" s="41"/>
+      <c r="C211" s="41"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -6067,7 +6122,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="40" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6075,7 +6130,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="46"/>
+      <c r="B218" s="40"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -6115,11 +6170,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="40" t="s">
+      <c r="A225" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
+      <c r="B225" s="41"/>
+      <c r="C225" s="41"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -6273,11 +6328,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="40" t="s">
+      <c r="A248" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="40"/>
-      <c r="C248" s="40"/>
+      <c r="B248" s="41"/>
+      <c r="C248" s="41"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -6296,11 +6351,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="40" t="s">
+      <c r="A253" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="40"/>
-      <c r="C253" s="40"/>
+      <c r="B253" s="41"/>
+      <c r="C253" s="41"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -6327,11 +6382,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="40" t="s">
+      <c r="A258" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="B258" s="40"/>
-      <c r="C258" s="40"/>
+      <c r="B258" s="41"/>
+      <c r="C258" s="41"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -6358,10 +6413,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="40" t="s">
+      <c r="A263" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="40"/>
+      <c r="B263" s="41"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="42" t="s">
@@ -6376,7 +6431,7 @@
       <c r="B265" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C265" s="46" t="s">
+      <c r="C265" s="40" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6387,7 +6442,7 @@
       <c r="B266" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C266" s="47"/>
+      <c r="C266" s="43"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -6396,7 +6451,7 @@
       <c r="B267" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C267" s="47"/>
+      <c r="C267" s="43"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -6410,8 +6465,8 @@
       <c r="A270" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="48"/>
-      <c r="C270" s="45"/>
+      <c r="B270" s="45"/>
+      <c r="C270" s="46"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -6461,11 +6516,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="40" t="s">
+      <c r="A279" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="B279" s="40"/>
-      <c r="C279" s="40"/>
+      <c r="B279" s="41"/>
+      <c r="C279" s="41"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -6503,11 +6558,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="40" t="s">
+      <c r="A285" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="B285" s="40"/>
-      <c r="C285" s="40"/>
+      <c r="B285" s="41"/>
+      <c r="C285" s="41"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -6534,11 +6589,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="40" t="s">
+      <c r="A290" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="B290" s="40"/>
-      <c r="C290" s="40"/>
+      <c r="B290" s="41"/>
+      <c r="C290" s="41"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -6565,11 +6620,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="40" t="s">
+      <c r="A295" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="40"/>
-      <c r="C295" s="40"/>
+      <c r="B295" s="41"/>
+      <c r="C295" s="41"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -6596,11 +6651,11 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="40" t="s">
+      <c r="A301" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="B301" s="40"/>
-      <c r="C301" s="40"/>
+      <c r="B301" s="41"/>
+      <c r="C301" s="41"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -6644,6 +6699,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
     <mergeCell ref="B217:B218"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A295:C295"/>
@@ -6660,34 +6743,6 @@
     <mergeCell ref="C265:C267"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -6702,10 +6757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A357" sqref="A357"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6804,18 +6859,18 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -6869,11 +6924,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="52" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -6995,11 +7050,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="53" t="s">
         <v>733</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
@@ -7008,7 +7063,7 @@
       <c r="B39" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="56" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7019,7 +7074,7 @@
       <c r="B40" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="57"/>
     </row>
     <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -7028,7 +7083,7 @@
       <c r="B41" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="57"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
@@ -7089,10 +7144,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="54" t="s">
         <v>750</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="58" t="s">
         <v>760</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -7100,12 +7155,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="54" t="s">
         <v>752</v>
       </c>
       <c r="B50" s="29" t="s">
@@ -7116,7 +7171,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="31" t="s">
         <v>751</v>
       </c>
@@ -7146,11 +7201,11 @@
       <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="60" t="s">
         <v>768</v>
       </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -7333,11 +7388,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -7380,11 +7435,11 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
     </row>
     <row r="84" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
@@ -7459,11 +7514,11 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
     </row>
     <row r="95" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
@@ -7471,11 +7526,11 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
     </row>
     <row r="98" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -7558,10 +7613,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="63" t="s">
+      <c r="A108" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B108" s="63"/>
+      <c r="B108" s="50"/>
     </row>
     <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -7580,18 +7635,18 @@
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="48" t="s">
         <v>644</v>
       </c>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="49" t="s">
         <v>647</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
     </row>
     <row r="114" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -7606,11 +7661,11 @@
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="62" t="s">
+      <c r="A116" s="49" t="s">
         <v>648</v>
       </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
@@ -7633,11 +7688,11 @@
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="62" t="s">
+      <c r="A122" s="49" t="s">
         <v>650</v>
       </c>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
     </row>
     <row r="123" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
@@ -7650,11 +7705,11 @@
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="62" t="s">
+      <c r="A125" s="49" t="s">
         <v>651</v>
       </c>
-      <c r="B125" s="62"/>
-      <c r="C125" s="62"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
     </row>
     <row r="126" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -7718,11 +7773,11 @@
       <c r="B139" s="3"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="40" t="s">
+      <c r="A143" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
     </row>
     <row r="144" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -7733,24 +7788,24 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="40" t="s">
+      <c r="A147" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="B147" s="40"/>
-      <c r="C147" s="40"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
     </row>
     <row r="148" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="B148" s="46"/>
+      <c r="B148" s="40"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="40" t="s">
+      <c r="A150" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="B150" s="40"/>
-      <c r="C150" s="40"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
     </row>
     <row r="151" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
@@ -7893,11 +7948,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="40" t="s">
+      <c r="A177" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="B177" s="40"/>
-      <c r="C177" s="40"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="41"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
@@ -7955,11 +8010,11 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="40" t="s">
+      <c r="A188" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="B188" s="40"/>
-      <c r="C188" s="40"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="41"/>
     </row>
     <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
@@ -7975,11 +8030,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="40" t="s">
+      <c r="A192" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="B192" s="40"/>
-      <c r="C192" s="40"/>
+      <c r="B192" s="41"/>
+      <c r="C192" s="41"/>
     </row>
     <row r="193" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -8109,11 +8164,11 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="40" t="s">
+      <c r="A212" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="B212" s="40"/>
-      <c r="C212" s="40"/>
+      <c r="B212" s="41"/>
+      <c r="C212" s="41"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -8208,11 +8263,11 @@
       <c r="C225" s="19"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="40" t="s">
+      <c r="A228" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
+      <c r="B228" s="41"/>
+      <c r="C228" s="41"/>
     </row>
     <row r="229" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -8239,11 +8294,11 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="40" t="s">
+      <c r="A233" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="B233" s="40"/>
-      <c r="C233" s="40"/>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
     </row>
     <row r="234" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -8286,11 +8341,11 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="40" t="s">
+      <c r="A240" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="B240" s="40"/>
-      <c r="C240" s="40"/>
+      <c r="B240" s="41"/>
+      <c r="C240" s="41"/>
     </row>
     <row r="241" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
@@ -8385,11 +8440,11 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="40" t="s">
+      <c r="A255" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="B255" s="40"/>
-      <c r="C255" s="40"/>
+      <c r="B255" s="41"/>
+      <c r="C255" s="41"/>
     </row>
     <row r="256" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
@@ -8445,11 +8500,11 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="40" t="s">
+      <c r="A265" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B265" s="40"/>
-      <c r="C265" s="40"/>
+      <c r="B265" s="41"/>
+      <c r="C265" s="41"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
@@ -8476,11 +8531,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="40" t="s">
+      <c r="A270" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
+      <c r="B270" s="41"/>
+      <c r="C270" s="41"/>
     </row>
     <row r="271" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
@@ -8531,11 +8586,11 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="40" t="s">
+      <c r="A278" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="B278" s="40"/>
-      <c r="C278" s="40"/>
+      <c r="B278" s="41"/>
+      <c r="C278" s="41"/>
     </row>
     <row r="279" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -8584,11 +8639,11 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="40" t="s">
+      <c r="A287" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="B287" s="40"/>
-      <c r="C287" s="40"/>
+      <c r="B287" s="41"/>
+      <c r="C287" s="41"/>
     </row>
     <row r="288" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
@@ -8640,17 +8695,17 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="46" t="s">
+      <c r="A293" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="B293" s="47"/>
+      <c r="B293" s="43"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="40" t="s">
+      <c r="A295" s="41" t="s">
         <v>783</v>
       </c>
-      <c r="B295" s="40"/>
-      <c r="C295" s="40"/>
+      <c r="B295" s="41"/>
+      <c r="C295" s="41"/>
     </row>
     <row r="296" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A296" s="37" t="s">
@@ -8790,11 +8845,11 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="40" t="s">
+      <c r="A313" s="41" t="s">
         <v>821</v>
       </c>
-      <c r="B313" s="40"/>
-      <c r="C313" s="40"/>
+      <c r="B313" s="41"/>
+      <c r="C313" s="41"/>
     </row>
     <row r="314" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
@@ -8904,11 +8959,11 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="40" t="s">
+      <c r="A328" s="41" t="s">
         <v>850</v>
       </c>
-      <c r="B328" s="40"/>
-      <c r="C328" s="40"/>
+      <c r="B328" s="41"/>
+      <c r="C328" s="41"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
@@ -8946,11 +9001,11 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="49" t="s">
+      <c r="A336" s="63" t="s">
         <v>851</v>
       </c>
-      <c r="B336" s="49"/>
-      <c r="C336" s="49"/>
+      <c r="B336" s="63"/>
+      <c r="C336" s="63"/>
     </row>
     <row r="337" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
@@ -8964,11 +9019,11 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="40" t="s">
+      <c r="A340" s="41" t="s">
         <v>859</v>
       </c>
-      <c r="B340" s="40"/>
-      <c r="C340" s="40"/>
+      <c r="B340" s="41"/>
+      <c r="C340" s="41"/>
     </row>
     <row r="341" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
@@ -8996,26 +9051,26 @@
     </row>
     <row r="344" spans="1:4" ht="196" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="308" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="56" x14ac:dyDescent="0.3">
@@ -9045,7 +9100,7 @@
         <v>868</v>
       </c>
       <c r="D349" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -9055,70 +9110,79 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="42" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B352" s="42"/>
       <c r="C352" s="42"/>
     </row>
-    <row r="353" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="B353" s="3" t="s">
+    </row>
+    <row r="354" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="B354" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="B354" s="3" t="s">
+    </row>
+    <row r="355" spans="1:3" ht="196" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" ht="196" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="B355" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="B355" s="3" t="s">
+    </row>
+    <row r="356" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A356" s="11" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+      <c r="B356" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>876</v>
+    </row>
+    <row r="357" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A240:C240"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A75:C75"/>
@@ -9132,28 +9196,39 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A278:C278"/>
     <mergeCell ref="A340:C340"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A240:C240"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A353" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>
+    <hyperlink ref="A356" r:id="rId2" xr:uid="{2FAA34E9-20B4-48ED-870D-ADED2E65BAD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1061" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F637568E-8776-4502-876B-B8B99A809630}"/>
+  <xr:revisionPtr revIDLastSave="1086" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA62E33-D494-4272-BFB6-7FFBB6D4FD19}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="911">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -3566,10 +3566,6 @@
       </rPr>
       <t>ايقاف التكرا بعد وقت معين</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">تنبيه اذا سويت فونكشن الوقت وحطتها في فاريبول لابد من وضع 
-برامتر ي القوس  أي شي </t>
   </si>
   <si>
     <r>
@@ -4007,6 +4003,75 @@
 الطريقة الثانية
 DateFormat("EEEE").format(DateTime.now()</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">تنبيه اذا سويت فونكشن الوقت وحطتها في فاريبول لابد من وضع 
+برامتر في القوس  أي شي </t>
+  </si>
+  <si>
+    <t>إضافة مشروع داخل مشروع (تنقيص الوقت)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int mun = 7;</t>
+  </si>
+  <si>
+    <t>Text(
+                      mun.toString().padLeft(2, "0"),
+                      style: TextStyle(
+                          fontSize: 27,
+                          color: Colors.white,
+                          backgroundColor: Colors.black),
+                    ),</t>
+  </si>
+  <si>
+    <t>اول شي تحط فاريبول رقمي</t>
+  </si>
+  <si>
+    <t>وتحط الفاريبول في التكست</t>
+  </si>
+  <si>
+    <t>Timer? returnfuchn;</t>
+  </si>
+  <si>
+    <t>فاريبول مع الاستفهام يعني قيمتة مجهوله
+ونوع الفاريبول وقت</t>
+  </si>
+  <si>
+    <t>starttimre() {
+    returnfuchn=Timer.periodic(Duration(seconds: 1), (timer) {
+      setState(() {
+        if (mun&gt;0) {
+          mun--;
+        }else{
+          timer.cancel();
+        }
+      });
+    });
+  }</t>
+  </si>
+  <si>
+    <t>وتسوي فونكشن الوقت التكراري وفي داخله 
+فاريبول المجهول و
+الفاريبول الرقمي وتغير قيمتة مع الاف الشرطية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ElevatedButton(
+                            onPressed: () {returnfuchn!.cancel();},</t>
+  </si>
+  <si>
+    <t>ثما تأخذ الفاريبول المجهول وتضع له داله لايقاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ElevatedButton(
+                            onPressed: () {
+                              starttimre();
+                            },</t>
+  </si>
+  <si>
+    <t>وتاخذ الفونكشن وتحطة في المكان الي تبيه</t>
+  </si>
+  <si>
+    <t>جديد</t>
   </si>
 </sst>
 </file>
@@ -4281,7 +4346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4400,38 +4465,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4469,7 +4528,16 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4793,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView rightToLeft="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4805,10 +4873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4872,7 +4940,7 @@
     </row>
     <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -4904,11 +4972,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -4941,11 +5009,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -4975,7 +5043,7 @@
       <c r="A28" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -5147,10 +5215,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="41"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -5289,11 +5357,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -5339,11 +5407,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -5370,11 +5438,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="41" t="s">
+      <c r="A99" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -5441,10 +5509,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="41"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -5486,11 +5554,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="41" t="s">
+      <c r="A115" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -5533,11 +5601,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -5580,11 +5648,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -5611,11 +5679,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="41" t="s">
+      <c r="A134" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -5658,11 +5726,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="41" t="s">
+      <c r="A141" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="41"/>
-      <c r="C141" s="41"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -5681,11 +5749,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="41" t="s">
+      <c r="A146" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -5721,11 +5789,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="48" t="s">
+      <c r="A153" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="48"/>
-      <c r="C153" s="48"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -5893,11 +5961,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="41" t="s">
+      <c r="A179" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="41"/>
-      <c r="C179" s="41"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="40"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -5921,11 +5989,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="41" t="s">
+      <c r="A186" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="41"/>
-      <c r="C186" s="41"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -5979,11 +6047,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="48" t="s">
+      <c r="A194" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -6010,11 +6078,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="41" t="s">
+      <c r="A200" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="41"/>
-      <c r="C200" s="41"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="40"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -6049,11 +6117,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="41" t="s">
+      <c r="A206" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="41"/>
-      <c r="C206" s="41"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="40"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -6072,11 +6140,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="41" t="s">
+      <c r="A211" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="41"/>
-      <c r="C211" s="41"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="40"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -6122,7 +6190,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="40" t="s">
+      <c r="B217" s="46" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6130,7 +6198,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="40"/>
+      <c r="B218" s="46"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -6170,11 +6238,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="41" t="s">
+      <c r="A225" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="41"/>
-      <c r="C225" s="41"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="40"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -6328,11 +6396,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="41" t="s">
+      <c r="A248" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="41"/>
-      <c r="C248" s="41"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="40"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -6351,11 +6419,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="41" t="s">
+      <c r="A253" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="41"/>
-      <c r="C253" s="41"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="40"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -6382,11 +6450,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="41" t="s">
+      <c r="A258" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="B258" s="41"/>
-      <c r="C258" s="41"/>
+      <c r="B258" s="40"/>
+      <c r="C258" s="40"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -6413,10 +6481,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="41" t="s">
+      <c r="A263" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="41"/>
+      <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="42" t="s">
@@ -6431,7 +6499,7 @@
       <c r="B265" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C265" s="40" t="s">
+      <c r="C265" s="46" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6442,7 +6510,7 @@
       <c r="B266" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C266" s="43"/>
+      <c r="C266" s="47"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -6451,7 +6519,7 @@
       <c r="B267" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C267" s="43"/>
+      <c r="C267" s="47"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -6465,8 +6533,8 @@
       <c r="A270" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="45"/>
-      <c r="C270" s="46"/>
+      <c r="B270" s="48"/>
+      <c r="C270" s="45"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -6516,11 +6584,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="41" t="s">
+      <c r="A279" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="B279" s="41"/>
-      <c r="C279" s="41"/>
+      <c r="B279" s="40"/>
+      <c r="C279" s="40"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -6558,11 +6626,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="41" t="s">
+      <c r="A285" s="40" t="s">
         <v>584</v>
       </c>
-      <c r="B285" s="41"/>
-      <c r="C285" s="41"/>
+      <c r="B285" s="40"/>
+      <c r="C285" s="40"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -6589,11 +6657,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="41" t="s">
+      <c r="A290" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="B290" s="41"/>
-      <c r="C290" s="41"/>
+      <c r="B290" s="40"/>
+      <c r="C290" s="40"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -6620,11 +6688,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="41" t="s">
+      <c r="A295" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="41"/>
-      <c r="C295" s="41"/>
+      <c r="B295" s="40"/>
+      <c r="C295" s="40"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -6651,11 +6719,11 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="41" t="s">
+      <c r="A301" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="B301" s="41"/>
-      <c r="C301" s="41"/>
+      <c r="B301" s="40"/>
+      <c r="C301" s="40"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -6699,34 +6767,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
     <mergeCell ref="B217:B218"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A295:C295"/>
@@ -6743,6 +6783,34 @@
     <mergeCell ref="C265:C267"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -6757,10 +6825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D358"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C357" sqref="C357"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6859,18 +6927,18 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -6924,11 +6992,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -7012,7 +7080,7 @@
         <v>721</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -7050,11 +7118,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="51" t="s">
         <v>733</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
     </row>
     <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
@@ -7063,7 +7131,7 @@
       <c r="B39" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="54" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7074,7 +7142,7 @@
       <c r="B40" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -7083,7 +7151,7 @@
       <c r="B41" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
@@ -7144,10 +7212,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="52" t="s">
         <v>750</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="56" t="s">
         <v>760</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -7155,12 +7223,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="52" t="s">
         <v>752</v>
       </c>
       <c r="B50" s="29" t="s">
@@ -7171,7 +7239,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="31" t="s">
         <v>751</v>
       </c>
@@ -7201,11 +7269,11 @@
       <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="58" t="s">
         <v>768</v>
       </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="62"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -7388,11 +7456,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -7435,11 +7503,11 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
     </row>
     <row r="84" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
@@ -7514,11 +7582,11 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
     </row>
     <row r="95" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
@@ -7526,11 +7594,11 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
     </row>
     <row r="98" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -7613,10 +7681,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="62" t="s">
         <v>643</v>
       </c>
-      <c r="B108" s="50"/>
+      <c r="B108" s="62"/>
     </row>
     <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -7635,18 +7703,18 @@
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
     </row>
     <row r="114" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -7661,11 +7729,11 @@
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
@@ -7688,11 +7756,11 @@
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="61" t="s">
         <v>650</v>
       </c>
-      <c r="B122" s="49"/>
-      <c r="C122" s="49"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="61"/>
     </row>
     <row r="123" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
@@ -7705,11 +7773,11 @@
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B125" s="49"/>
-      <c r="C125" s="49"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="61"/>
     </row>
     <row r="126" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -7773,11 +7841,11 @@
       <c r="B139" s="3"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="41" t="s">
+      <c r="A143" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="41"/>
-      <c r="C143" s="41"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
     </row>
     <row r="144" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -7788,24 +7856,24 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
     </row>
     <row r="148" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="40" t="s">
+      <c r="A148" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="B148" s="40"/>
+      <c r="B148" s="46"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="41" t="s">
+      <c r="A150" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="B150" s="41"/>
-      <c r="C150" s="41"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
     </row>
     <row r="151" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
@@ -7948,11 +8016,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="41" t="s">
+      <c r="A177" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="B177" s="41"/>
-      <c r="C177" s="41"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="40"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
@@ -8010,11 +8078,11 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="41" t="s">
+      <c r="A188" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="B188" s="41"/>
-      <c r="C188" s="41"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
     </row>
     <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
@@ -8030,11 +8098,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="41" t="s">
+      <c r="A192" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="B192" s="41"/>
-      <c r="C192" s="41"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
     </row>
     <row r="193" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -8164,11 +8232,11 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="41" t="s">
+      <c r="A212" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="B212" s="41"/>
-      <c r="C212" s="41"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -8263,11 +8331,11 @@
       <c r="C225" s="19"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="41" t="s">
+      <c r="A228" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="B228" s="41"/>
-      <c r="C228" s="41"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="40"/>
     </row>
     <row r="229" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -8294,11 +8362,11 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="41" t="s">
+      <c r="A233" s="40" t="s">
         <v>560</v>
       </c>
-      <c r="B233" s="41"/>
-      <c r="C233" s="41"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="40"/>
     </row>
     <row r="234" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -8341,11 +8409,11 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="41" t="s">
+      <c r="A240" s="40" t="s">
         <v>561</v>
       </c>
-      <c r="B240" s="41"/>
-      <c r="C240" s="41"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="40"/>
     </row>
     <row r="241" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
@@ -8440,11 +8508,11 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="41" t="s">
+      <c r="A255" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="B255" s="41"/>
-      <c r="C255" s="41"/>
+      <c r="B255" s="40"/>
+      <c r="C255" s="40"/>
     </row>
     <row r="256" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
@@ -8500,11 +8568,11 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="41" t="s">
+      <c r="A265" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="B265" s="41"/>
-      <c r="C265" s="41"/>
+      <c r="B265" s="40"/>
+      <c r="C265" s="40"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
@@ -8531,11 +8599,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="41" t="s">
+      <c r="A270" s="40" t="s">
         <v>617</v>
       </c>
-      <c r="B270" s="41"/>
-      <c r="C270" s="41"/>
+      <c r="B270" s="40"/>
+      <c r="C270" s="40"/>
     </row>
     <row r="271" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
@@ -8586,11 +8654,11 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="41" t="s">
+      <c r="A278" s="40" t="s">
         <v>631</v>
       </c>
-      <c r="B278" s="41"/>
-      <c r="C278" s="41"/>
+      <c r="B278" s="40"/>
+      <c r="C278" s="40"/>
     </row>
     <row r="279" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -8639,11 +8707,11 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="41" t="s">
+      <c r="A287" s="40" t="s">
         <v>668</v>
       </c>
-      <c r="B287" s="41"/>
-      <c r="C287" s="41"/>
+      <c r="B287" s="40"/>
+      <c r="C287" s="40"/>
     </row>
     <row r="288" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
@@ -8695,17 +8763,17 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="40" t="s">
+      <c r="A293" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="B293" s="43"/>
+      <c r="B293" s="47"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="41" t="s">
+      <c r="A295" s="40" t="s">
         <v>783</v>
       </c>
-      <c r="B295" s="41"/>
-      <c r="C295" s="41"/>
+      <c r="B295" s="40"/>
+      <c r="C295" s="40"/>
     </row>
     <row r="296" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A296" s="37" t="s">
@@ -8845,11 +8913,11 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="41" t="s">
+      <c r="A313" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="B313" s="41"/>
-      <c r="C313" s="41"/>
+      <c r="B313" s="40"/>
+      <c r="C313" s="40"/>
     </row>
     <row r="314" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
@@ -8959,18 +9027,18 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="41" t="s">
+      <c r="A328" s="40" t="s">
         <v>850</v>
       </c>
-      <c r="B328" s="41"/>
-      <c r="C328" s="41"/>
+      <c r="B328" s="40"/>
+      <c r="C328" s="40"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>846</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="56" x14ac:dyDescent="0.3">
@@ -8986,18 +9054,18 @@
         <v>849</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B333" s="22" t="s">
         <v>852</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>853</v>
+        <v>896</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -9009,36 +9077,36 @@
     </row>
     <row r="337" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B337" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="C337" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>857</v>
-      </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="41" t="s">
-        <v>859</v>
-      </c>
-      <c r="B340" s="41"/>
-      <c r="C340" s="41"/>
+      <c r="A340" s="40" t="s">
+        <v>858</v>
+      </c>
+      <c r="B340" s="40"/>
+      <c r="C340" s="40"/>
     </row>
     <row r="341" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="112" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -9046,128 +9114,226 @@
         <v>846</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="196" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="308" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="C349" s="3" t="s">
-        <v>868</v>
-      </c>
       <c r="D349" s="36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="B350" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="42" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B352" s="42"/>
       <c r="C352" s="42"/>
     </row>
     <row r="353" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="196" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B355" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="B358" s="3" t="s">
-        <v>893</v>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="42" t="s">
+        <v>897</v>
+      </c>
+      <c r="B359" s="42"/>
+      <c r="C359" s="42"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C362" s="64" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="196" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A364" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>909</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A164:C164"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A328:C328"/>
@@ -9183,46 +9349,7 @@
     <mergeCell ref="A228:C228"/>
     <mergeCell ref="A233:C233"/>
     <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A353" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1086" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA62E33-D494-4272-BFB6-7FFBB6D4FD19}"/>
+  <xr:revisionPtr revIDLastSave="1119" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069CE1ED-BF37-42C0-9FD2-8BF3384A51C0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="924">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -3144,12 +3144,6 @@
   <si>
     <t xml:space="preserve">  int y = -4;
 print( y.isNegative);</t>
-  </si>
-  <si>
-    <t>remainder()</t>
-  </si>
-  <si>
-    <t>لمعرفة باقي القسمة</t>
   </si>
   <si>
     <t>print( y.remainder(5));</t>
@@ -4072,6 +4066,170 @@
   </si>
   <si>
     <t>جديد</t>
+  </si>
+  <si>
+    <t>اذا وصل الرقم الى 60 يعيد من جديد</t>
+  </si>
+  <si>
+    <t>remainder(60)</t>
+  </si>
+  <si>
+    <t>انشاء عداد تصاعدي</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Duration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=Duration(seconds: 0);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تنشا فاريبول الوقت وقيمتة الفاريبول للثواني صفر
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>أي اسم</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">starttimre() {
+    returnfuchn = Timer.periodic(Duration(seconds: 1), (timer) {
+      setState(() {
+       int nwoSeconds=duration.inSeconds+1;
+       duration=  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(seconds: nwoSeconds);
+      });
+    });
+  }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تسوي فونكشن تكرر كل ثانية وفي داخلها كود التنشيط 
+setState(() {
+ثما تسوي فاريبول نوعه رقمي وتغير قيمة الفاريبول
+الي فوق الي </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">قيمة زمنية </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>بثانية وعددها هو 
+الفاريبول الي فوق</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> سطر 368</t>
+    </r>
+  </si>
+  <si>
+    <t>Text(
+     duration.inHours.toString()
+.remainder(99).padLeft(2,"0")</t>
+  </si>
+  <si>
+    <t>ثما تروح للتكيست الي تبي تحط فيها الرقم
+وتحط الفاريبول الي سويته سطر 368
+وتختار دقائق او ثواني او ساعات
+ثما تضيف له كود تحويل الي استرنق
+وكمان تضيف إضافة الخانات وكمان
+عدد التوقف</t>
+  </si>
+  <si>
+    <t>الدرس 21</t>
+  </si>
+  <si>
+    <t>لاظهار ودجت دون الاخر نستخدم قاعدة اف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bool ali = true;</t>
+  </si>
+  <si>
+    <t>نضع فاريبول من نوع صح او خطا
+ونضع أي قيمة له</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ali)?
+                       Text(
+                            "ابد ",
+                            style: TextStyle(fontSize: 19,color: Colors.white),)
+                    : 
+                       Text(
+                            "قف ",
+                            style: TextStyle(fontSize: 19,color: Colors.white),)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ثما نستخدم قاعدة اف المختصره
+لاتنسى تشيل السيمي كولا الي اخر شي حق الودجت 
+الأول </t>
   </si>
 </sst>
 </file>
@@ -4441,9 +4599,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4465,32 +4620,44 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4528,17 +4695,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4851,7 +5009,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4861,7 +5019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A149" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A302" workbookViewId="0">
       <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
@@ -4873,10 +5031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4940,7 +5098,7 @@
     </row>
     <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -4972,11 +5130,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -5009,11 +5167,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -5043,7 +5201,7 @@
       <c r="A28" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -5215,10 +5373,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -5357,11 +5515,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -5407,11 +5565,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -5438,11 +5596,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -5509,10 +5667,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="40"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -5554,11 +5712,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -5601,11 +5759,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="40" t="s">
+      <c r="A122" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -5648,11 +5806,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -5679,11 +5837,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="40" t="s">
+      <c r="A134" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="40"/>
-      <c r="C134" s="40"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -5726,11 +5884,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="40" t="s">
+      <c r="A141" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="40"/>
-      <c r="C141" s="40"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -5749,11 +5907,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="40" t="s">
+      <c r="A146" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -5789,11 +5947,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="41" t="s">
+      <c r="A153" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
+      <c r="B153" s="48"/>
+      <c r="C153" s="48"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -5961,11 +6119,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="40" t="s">
+      <c r="A179" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="40"/>
-      <c r="C179" s="40"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -5989,11 +6147,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="40" t="s">
+      <c r="A186" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="40"/>
-      <c r="C186" s="40"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -6047,11 +6205,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="41" t="s">
+      <c r="A194" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="41"/>
-      <c r="C194" s="41"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -6078,11 +6236,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="40" t="s">
+      <c r="A200" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="40"/>
-      <c r="C200" s="40"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -6117,11 +6275,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="40" t="s">
+      <c r="A206" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="41"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -6140,11 +6298,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="40" t="s">
+      <c r="A211" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="40"/>
-      <c r="C211" s="40"/>
+      <c r="B211" s="41"/>
+      <c r="C211" s="41"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -6190,7 +6348,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="40" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6198,7 +6356,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="46"/>
+      <c r="B218" s="40"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -6238,11 +6396,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="40" t="s">
+      <c r="A225" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
+      <c r="B225" s="41"/>
+      <c r="C225" s="41"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -6396,11 +6554,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="40" t="s">
+      <c r="A248" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="40"/>
-      <c r="C248" s="40"/>
+      <c r="B248" s="41"/>
+      <c r="C248" s="41"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -6419,11 +6577,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="40" t="s">
+      <c r="A253" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="40"/>
-      <c r="C253" s="40"/>
+      <c r="B253" s="41"/>
+      <c r="C253" s="41"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -6450,11 +6608,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="40" t="s">
+      <c r="A258" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="B258" s="40"/>
-      <c r="C258" s="40"/>
+      <c r="B258" s="41"/>
+      <c r="C258" s="41"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -6481,10 +6639,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="40" t="s">
+      <c r="A263" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="40"/>
+      <c r="B263" s="41"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="42" t="s">
@@ -6499,7 +6657,7 @@
       <c r="B265" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C265" s="46" t="s">
+      <c r="C265" s="40" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6510,7 +6668,7 @@
       <c r="B266" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C266" s="47"/>
+      <c r="C266" s="43"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -6519,7 +6677,7 @@
       <c r="B267" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C267" s="47"/>
+      <c r="C267" s="43"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -6533,8 +6691,8 @@
       <c r="A270" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="48"/>
-      <c r="C270" s="45"/>
+      <c r="B270" s="45"/>
+      <c r="C270" s="46"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -6584,11 +6742,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="40" t="s">
+      <c r="A279" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="B279" s="40"/>
-      <c r="C279" s="40"/>
+      <c r="B279" s="41"/>
+      <c r="C279" s="41"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -6626,11 +6784,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="40" t="s">
+      <c r="A285" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="B285" s="40"/>
-      <c r="C285" s="40"/>
+      <c r="B285" s="41"/>
+      <c r="C285" s="41"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -6657,11 +6815,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="40" t="s">
+      <c r="A290" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="B290" s="40"/>
-      <c r="C290" s="40"/>
+      <c r="B290" s="41"/>
+      <c r="C290" s="41"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -6688,11 +6846,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="40" t="s">
+      <c r="A295" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="40"/>
-      <c r="C295" s="40"/>
+      <c r="B295" s="41"/>
+      <c r="C295" s="41"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -6719,11 +6877,11 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="40" t="s">
+      <c r="A301" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="B301" s="40"/>
-      <c r="C301" s="40"/>
+      <c r="B301" s="41"/>
+      <c r="C301" s="41"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -6767,6 +6925,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
     <mergeCell ref="B217:B218"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A295:C295"/>
@@ -6783,34 +6969,6 @@
     <mergeCell ref="C265:C267"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -6825,10 +6983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6927,18 +7085,18 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -6992,11 +7150,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="53" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -7080,7 +7238,7 @@
         <v>721</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -7118,11 +7276,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="54" t="s">
         <v>733</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
     </row>
     <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
@@ -7131,7 +7289,7 @@
       <c r="B39" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="57" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7142,7 +7300,7 @@
       <c r="B40" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -7151,7 +7309,7 @@
       <c r="B41" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="58"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
@@ -7212,10 +7370,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="55" t="s">
         <v>750</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="59" t="s">
         <v>760</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -7223,12 +7381,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="55" t="s">
         <v>752</v>
       </c>
       <c r="B50" s="29" t="s">
@@ -7239,7 +7397,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="31" t="s">
         <v>751</v>
       </c>
@@ -7252,78 +7410,78 @@
       <c r="B52" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="32" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>909</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>767</v>
-      </c>
-      <c r="D53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="58" t="s">
-        <v>768</v>
-      </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="36" t="s">
-        <v>779</v>
+      <c r="D55" s="35" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D57" t="s">
         <v>775</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="D57" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -7448,19 +7606,19 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
-        <v>786</v>
+      <c r="A74" s="35" t="s">
+        <v>784</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -7503,11 +7661,11 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
     </row>
     <row r="84" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
@@ -7582,11 +7740,11 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
     </row>
     <row r="95" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
@@ -7594,11 +7752,11 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
     </row>
     <row r="98" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -7681,10 +7839,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="B108" s="62"/>
+      <c r="B108" s="50"/>
     </row>
     <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -7703,18 +7861,18 @@
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="48" t="s">
         <v>644</v>
       </c>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="61" t="s">
+      <c r="A113" s="51" t="s">
         <v>647</v>
       </c>
-      <c r="B113" s="61"/>
-      <c r="C113" s="61"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
     </row>
     <row r="114" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -7729,11 +7887,11 @@
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="61" t="s">
+      <c r="A116" s="51" t="s">
         <v>648</v>
       </c>
-      <c r="B116" s="61"/>
-      <c r="C116" s="61"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
@@ -7756,11 +7914,11 @@
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="51" t="s">
         <v>650</v>
       </c>
-      <c r="B122" s="61"/>
-      <c r="C122" s="61"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="51"/>
     </row>
     <row r="123" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
@@ -7773,11 +7931,11 @@
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="61" t="s">
+      <c r="A125" s="51" t="s">
         <v>651</v>
       </c>
-      <c r="B125" s="61"/>
-      <c r="C125" s="61"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="51"/>
     </row>
     <row r="126" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -7841,11 +7999,11 @@
       <c r="B139" s="3"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="40" t="s">
+      <c r="A143" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
     </row>
     <row r="144" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -7856,24 +8014,24 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="40" t="s">
+      <c r="A147" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="B147" s="40"/>
-      <c r="C147" s="40"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
     </row>
     <row r="148" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="B148" s="46"/>
+      <c r="B148" s="40"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="40" t="s">
+      <c r="A150" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="B150" s="40"/>
-      <c r="C150" s="40"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
     </row>
     <row r="151" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
@@ -8016,11 +8174,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="40" t="s">
+      <c r="A177" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="B177" s="40"/>
-      <c r="C177" s="40"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="41"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
@@ -8078,11 +8236,11 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="40" t="s">
+      <c r="A188" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="B188" s="40"/>
-      <c r="C188" s="40"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="41"/>
     </row>
     <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
@@ -8098,11 +8256,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="40" t="s">
+      <c r="A192" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="B192" s="40"/>
-      <c r="C192" s="40"/>
+      <c r="B192" s="41"/>
+      <c r="C192" s="41"/>
     </row>
     <row r="193" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -8232,11 +8390,11 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="40" t="s">
+      <c r="A212" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="B212" s="40"/>
-      <c r="C212" s="40"/>
+      <c r="B212" s="41"/>
+      <c r="C212" s="41"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -8331,11 +8489,11 @@
       <c r="C225" s="19"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="40" t="s">
+      <c r="A228" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
+      <c r="B228" s="41"/>
+      <c r="C228" s="41"/>
     </row>
     <row r="229" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -8362,11 +8520,11 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="40" t="s">
+      <c r="A233" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="B233" s="40"/>
-      <c r="C233" s="40"/>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
     </row>
     <row r="234" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -8409,11 +8567,11 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="40" t="s">
+      <c r="A240" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="B240" s="40"/>
-      <c r="C240" s="40"/>
+      <c r="B240" s="41"/>
+      <c r="C240" s="41"/>
     </row>
     <row r="241" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
@@ -8508,11 +8666,11 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="40" t="s">
+      <c r="A255" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="B255" s="40"/>
-      <c r="C255" s="40"/>
+      <c r="B255" s="41"/>
+      <c r="C255" s="41"/>
     </row>
     <row r="256" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
@@ -8568,11 +8726,11 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="40" t="s">
+      <c r="A265" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B265" s="40"/>
-      <c r="C265" s="40"/>
+      <c r="B265" s="41"/>
+      <c r="C265" s="41"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
@@ -8599,11 +8757,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="40" t="s">
+      <c r="A270" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
+      <c r="B270" s="41"/>
+      <c r="C270" s="41"/>
     </row>
     <row r="271" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
@@ -8654,11 +8812,11 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="40" t="s">
+      <c r="A278" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="B278" s="40"/>
-      <c r="C278" s="40"/>
+      <c r="B278" s="41"/>
+      <c r="C278" s="41"/>
     </row>
     <row r="279" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -8707,11 +8865,11 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="40" t="s">
+      <c r="A287" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="B287" s="40"/>
-      <c r="C287" s="40"/>
+      <c r="B287" s="41"/>
+      <c r="C287" s="41"/>
     </row>
     <row r="288" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
@@ -8763,226 +8921,226 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="46" t="s">
+      <c r="A293" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="B293" s="47"/>
+      <c r="B293" s="43"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="40" t="s">
+      <c r="A295" s="41" t="s">
+        <v>781</v>
+      </c>
+      <c r="B295" s="41"/>
+      <c r="C295" s="41"/>
+    </row>
+    <row r="296" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A296" s="36" t="s">
+        <v>782</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B295" s="40"/>
-      <c r="C295" s="40"/>
-    </row>
-    <row r="296" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A296" s="37" t="s">
-        <v>784</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="C296" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A297" s="37" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A297" s="38" t="s">
-        <v>790</v>
-      </c>
       <c r="B297" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="42" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B303" s="42"/>
       <c r="C303" s="42"/>
     </row>
     <row r="304" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>813</v>
-      </c>
       <c r="C306" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B308" s="42"/>
       <c r="C308" s="42"/>
     </row>
     <row r="309" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="41" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="40" t="s">
-        <v>821</v>
-      </c>
-      <c r="B313" s="40"/>
-      <c r="C313" s="40"/>
+      <c r="B313" s="41"/>
+      <c r="C313" s="41"/>
     </row>
     <row r="314" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="42" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B317" s="42"/>
       <c r="C317" s="42"/>
     </row>
     <row r="318" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A318" s="39" t="s">
+      <c r="A318" s="38" t="s">
+        <v>824</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" x14ac:dyDescent="0.3">
@@ -8990,10 +9148,10 @@
         <v>725</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -9001,304 +9159,395 @@
         <v>748</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>845</v>
-      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="40" t="s">
-        <v>850</v>
-      </c>
-      <c r="B328" s="40"/>
-      <c r="C328" s="40"/>
+      <c r="A328" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="B328" s="41"/>
+      <c r="C328" s="41"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="63" t="s">
-        <v>851</v>
-      </c>
-      <c r="B336" s="63"/>
-      <c r="C336" s="63"/>
+      <c r="A336" s="49" t="s">
+        <v>849</v>
+      </c>
+      <c r="B336" s="49"/>
+      <c r="C336" s="49"/>
     </row>
     <row r="337" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="B337" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="C337" s="3" t="s">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="41" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="40" t="s">
-        <v>858</v>
-      </c>
-      <c r="B340" s="40"/>
-      <c r="C340" s="40"/>
+      <c r="B340" s="41"/>
+      <c r="C340" s="41"/>
     </row>
     <row r="341" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="112" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="196" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="308" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>861</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="D349" s="36" t="s">
-        <v>875</v>
+        <v>865</v>
+      </c>
+      <c r="D349" s="35" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="B350" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="42" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B352" s="42"/>
       <c r="C352" s="42"/>
     </row>
     <row r="353" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="196" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="42" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B359" s="42"/>
       <c r="C359" s="42"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="C362" s="64" t="s">
-        <v>910</v>
+        <v>901</v>
+      </c>
+      <c r="C362" s="39" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="196" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="B367" s="41"/>
+      <c r="C367" s="41"/>
+    </row>
+    <row r="368" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="140" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B369" s="22" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="42" t="s">
+        <v>919</v>
+      </c>
+      <c r="B371" s="42"/>
+      <c r="C371" s="42"/>
+    </row>
+    <row r="372" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="140" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B379" s="1" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A308:C308"/>
+  <mergeCells count="58">
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A125:C125"/>
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A340:C340"/>
     <mergeCell ref="A336:C336"/>
@@ -9315,41 +9564,11 @@
     <mergeCell ref="A219:C219"/>
     <mergeCell ref="A148:B148"/>
     <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A308:C308"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A353" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1119" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069CE1ED-BF37-42C0-9FD2-8BF3384A51C0}"/>
+  <xr:revisionPtr revIDLastSave="1174" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05EB1A50-CB02-4F2C-82A2-01D1D4210AC8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="fluttre" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="953">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -4204,9 +4204,6 @@
 عدد التوقف</t>
   </si>
   <si>
-    <t>الدرس 21</t>
-  </si>
-  <si>
     <t>لاظهار ودجت دون الاخر نستخدم قاعدة اف</t>
   </si>
   <si>
@@ -4230,6 +4227,101 @@
     <t xml:space="preserve">ثما نستخدم قاعدة اف المختصره
 لاتنسى تشيل السيمي كولا الي اخر شي حق الودجت 
 الأول </t>
+  </si>
+  <si>
+    <t>صناعة عداد percent</t>
+  </si>
+  <si>
+    <t>https://pub.dev/packages/percent_indicator</t>
+  </si>
+  <si>
+    <t>تروح للموقع الرسمي ونروح لكلمة 
+Installing
+علشان تثبت البكج حقها</t>
+  </si>
+  <si>
+    <t>percent_indicator: ^4.2.2</t>
+  </si>
+  <si>
+    <t>import 'package:percent_indicator/percent_indicator.dart';</t>
+  </si>
+  <si>
+    <t>وهذ تحطه في اول الصفحه لاستدعاء المكتبة</t>
+  </si>
+  <si>
+    <t>تنسخ الإصدار وتحطة تحت 
+ cupertino_icons: ^1.0.2
+وتسوي حفظ</t>
+  </si>
+  <si>
+    <t>الدرس 20</t>
+  </si>
+  <si>
+    <t>الدقيقة 28</t>
+  </si>
+  <si>
+    <t>CircularPercentIndicator()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> radius: 100.0,</t>
+  </si>
+  <si>
+    <t>حجم الدائره</t>
+  </si>
+  <si>
+    <t>وتاخذ السنتر أي المنتصف وبعده تأخذ ودجت</t>
+  </si>
+  <si>
+    <t>center:Text(</t>
+  </si>
+  <si>
+    <t>progressColor: Color.fromARGB(255, 255, 85, 113),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> backgroundColor: Colors.grey,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lineWidth: 5.0,</t>
+  </si>
+  <si>
+    <t>animation: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> animateFromLastPercent: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> animationDuration: 100,</t>
+  </si>
+  <si>
+    <t>حجم خط الدائره</t>
+  </si>
+  <si>
+    <t>النسبة المئوية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> percent:25/25</t>
+  </si>
+  <si>
+    <t>وهذا الكودين مختصة في تريقظة نقص العداد</t>
+  </si>
+  <si>
+    <t>وهذا الكود مختص في سرعة نقص العداد</t>
+  </si>
+  <si>
+    <t>header: new Text("Icon header"),</t>
+  </si>
+  <si>
+    <t>يعني تقدر تحط ودجت في اعلئ 
+CircularPercentIndicator()</t>
+  </si>
+  <si>
+    <t>LinearPercentIndicator()</t>
+  </si>
+  <si>
+    <t>هذه الودجت لصناعة عداد دائي والتحكم به</t>
+  </si>
+  <si>
+    <t>هذه الودجت لصناعة مستطيل دائي والتحكم به</t>
   </si>
 </sst>
 </file>
@@ -4623,7 +4715,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4635,26 +4727,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4695,7 +4784,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5017,10 +5109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
-  <dimension ref="A1:C306"/>
+  <dimension ref="A1:C327"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5031,10 +5123,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5198,10 +5290,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="47"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -5947,11 +6039,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="48" t="s">
+      <c r="A153" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="48"/>
-      <c r="C153" s="48"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="44"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -6205,11 +6297,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="48" t="s">
+      <c r="A194" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="44"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -6348,7 +6440,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="40" t="s">
+      <c r="B217" s="48" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6356,7 +6448,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="40"/>
+      <c r="B218" s="48"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -6657,7 +6749,7 @@
       <c r="B265" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C265" s="40" t="s">
+      <c r="C265" s="48" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6688,11 +6780,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="44" t="s">
+      <c r="A270" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="45"/>
-      <c r="C270" s="46"/>
+      <c r="B270" s="49"/>
+      <c r="C270" s="47"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -6907,7 +6999,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>659</v>
       </c>
@@ -6915,7 +7007,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>660</v>
       </c>
@@ -6923,36 +7015,145 @@
         <v>661</v>
       </c>
     </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="41" t="s">
+        <v>923</v>
+      </c>
+      <c r="B309" s="41"/>
+      <c r="C309" s="41"/>
+    </row>
+    <row r="310" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A310" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="42" t="s">
+        <v>932</v>
+      </c>
+      <c r="B313" s="42"/>
+      <c r="C313" s="42"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B322" s="43" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B323" s="43"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B327" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
+  <mergeCells count="47">
     <mergeCell ref="B217:B218"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A295:C295"/>
@@ -6969,29 +7170,61 @@
     <mergeCell ref="C265:C267"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
     <hyperlink ref="A75" r:id="rId2" xr:uid="{F8A28BA6-3A11-4667-B4AA-6D72A4F1395E}"/>
     <hyperlink ref="A213" r:id="rId3" xr:uid="{2E0D091E-46B3-4D87-AF0F-EA8C87682D4A}"/>
     <hyperlink ref="A220" r:id="rId4" xr:uid="{48D762FC-718C-42A7-8CEA-2F85A5242CE2}"/>
+    <hyperlink ref="A310" r:id="rId5" xr:uid="{5301D990-40BA-4B0A-A029-5C4E6EC858AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+    <sheetView rightToLeft="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A375" sqref="A375:C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
@@ -7092,11 +7325,11 @@
       <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -7150,11 +7383,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="52" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -7276,11 +7509,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="53" t="s">
         <v>733</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
@@ -7289,7 +7522,7 @@
       <c r="B39" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="56" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7300,7 +7533,7 @@
       <c r="B40" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C40" s="58"/>
+      <c r="C40" s="57"/>
     </row>
     <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -7309,7 +7542,7 @@
       <c r="B41" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="57"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
@@ -7370,10 +7603,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="54" t="s">
         <v>750</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>760</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -7381,12 +7614,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="54" t="s">
         <v>752</v>
       </c>
       <c r="B50" s="29" t="s">
@@ -7397,7 +7630,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="31" t="s">
         <v>751</v>
       </c>
@@ -7415,10 +7648,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="40" t="s">
         <v>910</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="40" t="s">
         <v>909</v>
       </c>
       <c r="C53" s="33" t="s">
@@ -7427,11 +7660,11 @@
       <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="60" t="s">
         <v>766</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -7839,10 +8072,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="B108" s="50"/>
+      <c r="B108" s="64"/>
     </row>
     <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -7861,18 +8094,18 @@
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="50" t="s">
         <v>647</v>
       </c>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
     </row>
     <row r="114" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -7887,11 +8120,11 @@
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="50" t="s">
         <v>648</v>
       </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
@@ -7914,11 +8147,11 @@
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="51" t="s">
+      <c r="A122" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="50"/>
     </row>
     <row r="123" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
@@ -7931,11 +8164,11 @@
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="51" t="s">
+      <c r="A125" s="50" t="s">
         <v>651</v>
       </c>
-      <c r="B125" s="51"/>
-      <c r="C125" s="51"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="50"/>
     </row>
     <row r="126" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -8021,10 +8254,10 @@
       <c r="C147" s="41"/>
     </row>
     <row r="148" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="40" t="s">
+      <c r="A148" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="B148" s="40"/>
+      <c r="B148" s="48"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="41" t="s">
@@ -8921,7 +9154,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="40" t="s">
+      <c r="A293" s="48" t="s">
         <v>682</v>
       </c>
       <c r="B293" s="43"/>
@@ -9054,7 +9287,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>815</v>
       </c>
@@ -9062,7 +9295,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>818</v>
       </c>
@@ -9227,11 +9460,11 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="49" t="s">
+      <c r="A336" s="63" t="s">
         <v>849</v>
       </c>
-      <c r="B336" s="49"/>
-      <c r="C336" s="49"/>
+      <c r="B336" s="63"/>
+      <c r="C336" s="63"/>
     </row>
     <row r="337" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
@@ -9251,7 +9484,7 @@
       <c r="B340" s="41"/>
       <c r="C340" s="41"/>
     </row>
-    <row r="341" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>868</v>
       </c>
@@ -9275,7 +9508,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="196" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" ht="182" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>875</v>
       </c>
@@ -9384,7 +9617,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>889</v>
       </c>
@@ -9407,7 +9640,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>897</v>
       </c>
@@ -9426,7 +9659,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="196" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="182" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>902</v>
       </c>
@@ -9434,7 +9667,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>904</v>
       </c>
@@ -9465,7 +9698,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="140" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>914</v>
       </c>
@@ -9483,39 +9716,72 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="42" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B371" s="42"/>
       <c r="C371" s="42"/>
     </row>
     <row r="372" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="140" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="B373" s="3" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B379" s="1" t="s">
-        <v>918</v>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="A143:C143"/>
     <mergeCell ref="A169:C169"/>
@@ -9529,46 +9795,16 @@
     <mergeCell ref="A233:C233"/>
     <mergeCell ref="A240:C240"/>
     <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A155:C155"/>
     <mergeCell ref="A160:C160"/>
     <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A328:C328"/>
     <mergeCell ref="A359:C359"/>
     <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A308:C308"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A353" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>
